--- a/NoteMaps/NAKKA_AKMU_H.xlsx
+++ b/NoteMaps/NAKKA_AKMU_H.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eogus\source\repos\RhythmGame\NoteMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB0AA70-CE8B-4DD8-A37C-A916401C28E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D26A55-B44C-4A15-8752-888606360126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBD1AADC-AD03-4139-A607-30D499883534}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NAKKA_AKMU_H" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -482,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597C38B7-F2CF-4951-BED7-7D28309F5979}">
   <dimension ref="A1:G1191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A1152" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F1184" sqref="F1184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1531,8 +1531,8 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50">
-        <v>0</v>
+      <c r="E50" s="1">
+        <v>1</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1580,8 +1580,8 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
-        <v>0</v>
+      <c r="F52" s="1">
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -1629,8 +1629,8 @@
       <c r="F54">
         <v>0</v>
       </c>
-      <c r="G54">
-        <v>0</v>
+      <c r="G54" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -1666,8 +1666,8 @@
       <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="D56" s="1">
-        <v>1</v>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1721,8 +1721,8 @@
       <c r="F58">
         <v>0</v>
       </c>
-      <c r="G58">
-        <v>0</v>
+      <c r="G58" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -1951,8 +1951,8 @@
       <c r="F68">
         <v>0</v>
       </c>
-      <c r="G68">
-        <v>0</v>
+      <c r="G68" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.4">
@@ -2034,11 +2034,11 @@
       <c r="C72" s="2">
         <v>1</v>
       </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" s="1">
-        <v>1</v>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2172,8 +2172,8 @@
       <c r="C78" s="2">
         <v>7</v>
       </c>
-      <c r="D78">
-        <v>0</v>
+      <c r="D78" s="1">
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2221,8 +2221,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" s="1">
-        <v>1</v>
+      <c r="E80">
+        <v>0</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -2313,8 +2313,8 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84">
-        <v>0</v>
+      <c r="E84" s="1">
+        <v>1</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -2405,8 +2405,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" s="1">
-        <v>1</v>
+      <c r="E88">
+        <v>0</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2500,8 +2500,8 @@
       <c r="E92">
         <v>0</v>
       </c>
-      <c r="F92">
-        <v>0</v>
+      <c r="F92" s="1">
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -2589,8 +2589,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" s="1">
-        <v>1</v>
+      <c r="E96">
+        <v>0</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -2641,8 +2641,8 @@
       <c r="F98">
         <v>0</v>
       </c>
-      <c r="G98">
-        <v>0</v>
+      <c r="G98" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.4">
@@ -2770,14 +2770,14 @@
       <c r="C104" s="2">
         <v>1</v>
       </c>
-      <c r="D104">
-        <v>0</v>
+      <c r="D104" s="1">
+        <v>1</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
-      <c r="F104" s="1">
-        <v>1</v>
+      <c r="F104">
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -2960,8 +2960,8 @@
       <c r="E112">
         <v>0</v>
       </c>
-      <c r="F112" s="1">
-        <v>1</v>
+      <c r="F112">
+        <v>0</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3049,8 +3049,8 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116">
-        <v>0</v>
+      <c r="E116" s="1">
+        <v>1</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3098,8 +3098,8 @@
       <c r="E118">
         <v>0</v>
       </c>
-      <c r="F118">
-        <v>0</v>
+      <c r="F118" s="1">
+        <v>1</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3144,8 +3144,8 @@
       <c r="E120">
         <v>0</v>
       </c>
-      <c r="F120" s="1">
-        <v>1</v>
+      <c r="F120">
+        <v>0</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3328,8 +3328,8 @@
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128" s="1">
-        <v>1</v>
+      <c r="F128">
+        <v>0</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -3377,8 +3377,8 @@
       <c r="F130">
         <v>0</v>
       </c>
-      <c r="G130">
-        <v>0</v>
+      <c r="G130" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.4">
@@ -3420,8 +3420,8 @@
       <c r="E132">
         <v>0</v>
       </c>
-      <c r="F132">
-        <v>0</v>
+      <c r="F132" s="1">
+        <v>1</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -3463,8 +3463,8 @@
       <c r="D134">
         <v>0</v>
       </c>
-      <c r="E134">
-        <v>0</v>
+      <c r="E134" s="1">
+        <v>1</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -3506,8 +3506,8 @@
       <c r="C136" s="2">
         <v>1</v>
       </c>
-      <c r="D136">
-        <v>0</v>
+      <c r="D136" s="1">
+        <v>1</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3515,8 +3515,8 @@
       <c r="F136">
         <v>0</v>
       </c>
-      <c r="G136" s="1">
-        <v>1</v>
+      <c r="G136">
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.4">
@@ -3699,8 +3699,8 @@
       <c r="F144">
         <v>0</v>
       </c>
-      <c r="G144" s="1">
-        <v>1</v>
+      <c r="G144">
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.4">
@@ -3782,8 +3782,8 @@
       <c r="C148" s="2">
         <v>5</v>
       </c>
-      <c r="D148">
-        <v>0</v>
+      <c r="D148" s="1">
+        <v>1</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -3831,8 +3831,8 @@
       <c r="D150">
         <v>0</v>
       </c>
-      <c r="E150">
-        <v>0</v>
+      <c r="E150" s="1">
+        <v>1</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -3883,8 +3883,8 @@
       <c r="F152">
         <v>0</v>
       </c>
-      <c r="G152" s="1">
-        <v>1</v>
+      <c r="G152">
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.4">
@@ -4058,17 +4058,17 @@
       <c r="C160" s="2">
         <v>1</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160">
-        <v>0</v>
+      <c r="D160" s="1">
+        <v>1</v>
+      </c>
+      <c r="E160" s="1">
+        <v>1</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
-      <c r="G160" s="1">
-        <v>1</v>
+      <c r="G160">
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.4">
@@ -4110,8 +4110,8 @@
       <c r="E162">
         <v>0</v>
       </c>
-      <c r="F162">
-        <v>0</v>
+      <c r="F162" s="1">
+        <v>1</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4159,8 +4159,8 @@
       <c r="F164">
         <v>0</v>
       </c>
-      <c r="G164">
-        <v>0</v>
+      <c r="G164" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.4">
@@ -4205,8 +4205,8 @@
       <c r="F166">
         <v>0</v>
       </c>
-      <c r="G166">
-        <v>0</v>
+      <c r="G166" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.4">
@@ -4245,8 +4245,8 @@
       <c r="D168" s="1">
         <v>1</v>
       </c>
-      <c r="E168">
-        <v>0</v>
+      <c r="E168" s="1">
+        <v>1</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -4337,11 +4337,11 @@
       <c r="D172">
         <v>0</v>
       </c>
-      <c r="E172" s="1">
-        <v>1</v>
-      </c>
-      <c r="F172">
-        <v>0</v>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1">
+        <v>1</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -4426,17 +4426,17 @@
       <c r="C176" s="2">
         <v>1</v>
       </c>
-      <c r="D176">
-        <v>0</v>
+      <c r="D176" s="1">
+        <v>1</v>
       </c>
       <c r="E176">
         <v>0</v>
       </c>
-      <c r="F176" s="1">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>0</v>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.4">
@@ -4613,8 +4613,8 @@
       <c r="D184" s="1">
         <v>1</v>
       </c>
-      <c r="E184">
-        <v>0</v>
+      <c r="E184" s="1">
+        <v>1</v>
       </c>
       <c r="F184">
         <v>0</v>
@@ -4705,11 +4705,11 @@
       <c r="D188">
         <v>0</v>
       </c>
-      <c r="E188" s="1">
-        <v>1</v>
-      </c>
-      <c r="F188">
-        <v>0</v>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" s="1">
+        <v>1</v>
       </c>
       <c r="G188">
         <v>0</v>
@@ -4794,17 +4794,17 @@
       <c r="C192" s="2">
         <v>1</v>
       </c>
-      <c r="D192">
-        <v>0</v>
+      <c r="D192" s="1">
+        <v>1</v>
       </c>
       <c r="E192">
         <v>0</v>
       </c>
-      <c r="F192" s="1">
-        <v>1</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.4">
@@ -4981,8 +4981,8 @@
       <c r="D200" s="1">
         <v>1</v>
       </c>
-      <c r="E200">
-        <v>0</v>
+      <c r="E200" s="1">
+        <v>1</v>
       </c>
       <c r="F200">
         <v>0</v>
@@ -5073,11 +5073,11 @@
       <c r="D204">
         <v>0</v>
       </c>
-      <c r="E204" s="1">
-        <v>1</v>
-      </c>
-      <c r="F204">
-        <v>0</v>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" s="1">
+        <v>1</v>
       </c>
       <c r="G204">
         <v>0</v>
@@ -5162,17 +5162,17 @@
       <c r="C208" s="2">
         <v>1</v>
       </c>
-      <c r="D208">
-        <v>0</v>
+      <c r="D208" s="1">
+        <v>1</v>
       </c>
       <c r="E208">
         <v>0</v>
       </c>
-      <c r="F208" s="1">
-        <v>1</v>
-      </c>
-      <c r="G208">
-        <v>0</v>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.4">
@@ -5349,8 +5349,8 @@
       <c r="D216" s="1">
         <v>1</v>
       </c>
-      <c r="E216">
-        <v>0</v>
+      <c r="E216" s="1">
+        <v>1</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -5441,11 +5441,11 @@
       <c r="D220">
         <v>0</v>
       </c>
-      <c r="E220" s="1">
-        <v>1</v>
-      </c>
-      <c r="F220">
-        <v>0</v>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220" s="1">
+        <v>1</v>
       </c>
       <c r="G220">
         <v>0</v>
@@ -5530,17 +5530,17 @@
       <c r="C224" s="2">
         <v>1</v>
       </c>
-      <c r="D224">
-        <v>0</v>
+      <c r="D224" s="1">
+        <v>1</v>
       </c>
       <c r="E224">
         <v>0</v>
       </c>
-      <c r="F224" s="1">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>0</v>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.4">
@@ -5717,8 +5717,8 @@
       <c r="D232" s="1">
         <v>1</v>
       </c>
-      <c r="E232">
-        <v>0</v>
+      <c r="E232" s="1">
+        <v>1</v>
       </c>
       <c r="F232">
         <v>0</v>
@@ -5809,11 +5809,11 @@
       <c r="D236">
         <v>0</v>
       </c>
-      <c r="E236" s="1">
-        <v>1</v>
-      </c>
-      <c r="F236">
-        <v>0</v>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" s="1">
+        <v>1</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -5898,17 +5898,17 @@
       <c r="C240" s="2">
         <v>1</v>
       </c>
-      <c r="D240">
-        <v>0</v>
+      <c r="D240" s="1">
+        <v>1</v>
       </c>
       <c r="E240">
         <v>0</v>
       </c>
-      <c r="F240" s="1">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.4">
@@ -6085,8 +6085,8 @@
       <c r="D248" s="1">
         <v>1</v>
       </c>
-      <c r="E248">
-        <v>0</v>
+      <c r="E248" s="1">
+        <v>1</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -6177,11 +6177,11 @@
       <c r="D252">
         <v>0</v>
       </c>
-      <c r="E252" s="1">
-        <v>1</v>
-      </c>
-      <c r="F252">
-        <v>0</v>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" s="1">
+        <v>1</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -6266,17 +6266,17 @@
       <c r="C256" s="2">
         <v>1</v>
       </c>
-      <c r="D256">
-        <v>0</v>
+      <c r="D256" s="1">
+        <v>1</v>
       </c>
       <c r="E256">
         <v>0</v>
       </c>
-      <c r="F256" s="1">
-        <v>1</v>
-      </c>
-      <c r="G256">
-        <v>0</v>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.4">
@@ -6453,8 +6453,8 @@
       <c r="D264" s="1">
         <v>1</v>
       </c>
-      <c r="E264">
-        <v>0</v>
+      <c r="E264" s="1">
+        <v>1</v>
       </c>
       <c r="F264">
         <v>0</v>
@@ -6545,11 +6545,11 @@
       <c r="D268">
         <v>0</v>
       </c>
-      <c r="E268" s="1">
-        <v>1</v>
-      </c>
-      <c r="F268">
-        <v>0</v>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" s="1">
+        <v>1</v>
       </c>
       <c r="G268">
         <v>0</v>
@@ -6634,17 +6634,17 @@
       <c r="C272" s="2">
         <v>1</v>
       </c>
-      <c r="D272">
-        <v>0</v>
+      <c r="D272" s="1">
+        <v>1</v>
       </c>
       <c r="E272">
         <v>0</v>
       </c>
-      <c r="F272" s="1">
-        <v>1</v>
-      </c>
-      <c r="G272">
-        <v>0</v>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.4">
@@ -6821,8 +6821,8 @@
       <c r="D280" s="1">
         <v>1</v>
       </c>
-      <c r="E280">
-        <v>0</v>
+      <c r="E280" s="1">
+        <v>1</v>
       </c>
       <c r="F280">
         <v>0</v>
@@ -6913,14 +6913,14 @@
       <c r="D284">
         <v>0</v>
       </c>
-      <c r="E284">
-        <v>0</v>
+      <c r="E284" s="1">
+        <v>1</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
-      <c r="G284" s="1">
-        <v>1</v>
+      <c r="G284">
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.4">
@@ -7002,17 +7002,17 @@
       <c r="C288" s="2">
         <v>1</v>
       </c>
-      <c r="D288">
-        <v>0</v>
+      <c r="D288" s="1">
+        <v>1</v>
       </c>
       <c r="E288">
         <v>0</v>
       </c>
-      <c r="F288" s="1">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>0</v>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.4">
@@ -8161,8 +8161,8 @@
       <c r="F338">
         <v>0</v>
       </c>
-      <c r="G338">
-        <v>0</v>
+      <c r="G338" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.4">
@@ -8529,8 +8529,8 @@
       <c r="F354">
         <v>0</v>
       </c>
-      <c r="G354">
-        <v>0</v>
+      <c r="G354" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.4">
@@ -8897,8 +8897,8 @@
       <c r="F370">
         <v>0</v>
       </c>
-      <c r="G370">
-        <v>0</v>
+      <c r="G370" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.4">
@@ -9265,8 +9265,8 @@
       <c r="F386">
         <v>0</v>
       </c>
-      <c r="G386">
-        <v>0</v>
+      <c r="G386" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.4">
@@ -9633,8 +9633,8 @@
       <c r="F402">
         <v>0</v>
       </c>
-      <c r="G402">
-        <v>0</v>
+      <c r="G402" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.4">
@@ -9679,8 +9679,8 @@
       <c r="F404">
         <v>0</v>
       </c>
-      <c r="G404">
-        <v>0</v>
+      <c r="G404" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.4">
@@ -10041,8 +10041,8 @@
       <c r="D420">
         <v>0</v>
       </c>
-      <c r="E420">
-        <v>0</v>
+      <c r="E420" s="1">
+        <v>1</v>
       </c>
       <c r="F420">
         <v>0</v>
@@ -10087,8 +10087,8 @@
       <c r="D422">
         <v>0</v>
       </c>
-      <c r="E422">
-        <v>0</v>
+      <c r="E422" s="1">
+        <v>1</v>
       </c>
       <c r="F422">
         <v>0</v>
@@ -10130,14 +10130,14 @@
       <c r="C424" s="2">
         <v>1</v>
       </c>
-      <c r="D424" s="1">
-        <v>1</v>
+      <c r="D424">
+        <v>0</v>
       </c>
       <c r="E424">
         <v>0</v>
       </c>
-      <c r="F424">
-        <v>0</v>
+      <c r="F424" s="1">
+        <v>1</v>
       </c>
       <c r="G424">
         <v>0</v>
@@ -10314,8 +10314,8 @@
       <c r="C432" s="2">
         <v>1</v>
       </c>
-      <c r="D432">
-        <v>0</v>
+      <c r="D432" s="1">
+        <v>1</v>
       </c>
       <c r="E432">
         <v>0</v>
@@ -10323,8 +10323,8 @@
       <c r="F432">
         <v>0</v>
       </c>
-      <c r="G432" s="1">
-        <v>1</v>
+      <c r="G432">
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.4">
@@ -10363,8 +10363,8 @@
       <c r="D434">
         <v>0</v>
       </c>
-      <c r="E434">
-        <v>0</v>
+      <c r="E434" s="1">
+        <v>1</v>
       </c>
       <c r="F434">
         <v>0</v>
@@ -10406,8 +10406,8 @@
       <c r="C436" s="2">
         <v>5</v>
       </c>
-      <c r="D436">
-        <v>0</v>
+      <c r="D436" s="1">
+        <v>1</v>
       </c>
       <c r="E436">
         <v>0</v>
@@ -10455,8 +10455,8 @@
       <c r="D438">
         <v>0</v>
       </c>
-      <c r="E438">
-        <v>0</v>
+      <c r="E438" s="1">
+        <v>1</v>
       </c>
       <c r="F438">
         <v>0</v>
@@ -10498,14 +10498,14 @@
       <c r="C440" s="2">
         <v>1</v>
       </c>
-      <c r="D440" s="1">
-        <v>1</v>
+      <c r="D440">
+        <v>0</v>
       </c>
       <c r="E440">
         <v>0</v>
       </c>
-      <c r="F440">
-        <v>0</v>
+      <c r="F440" s="1">
+        <v>1</v>
       </c>
       <c r="G440">
         <v>0</v>
@@ -10553,8 +10553,8 @@
       <c r="F442">
         <v>0</v>
       </c>
-      <c r="G442">
-        <v>0</v>
+      <c r="G442" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.4">
@@ -10691,8 +10691,8 @@
       <c r="F448">
         <v>0</v>
       </c>
-      <c r="G448" s="1">
-        <v>1</v>
+      <c r="G448">
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.4">
@@ -10783,8 +10783,8 @@
       <c r="F452">
         <v>0</v>
       </c>
-      <c r="G452">
-        <v>0</v>
+      <c r="G452" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.4">
@@ -10866,11 +10866,11 @@
       <c r="C456" s="2">
         <v>1</v>
       </c>
-      <c r="D456">
-        <v>0</v>
-      </c>
-      <c r="E456" s="1">
-        <v>1</v>
+      <c r="D456" s="1">
+        <v>1</v>
+      </c>
+      <c r="E456">
+        <v>0</v>
       </c>
       <c r="F456">
         <v>0</v>
@@ -11004,8 +11004,8 @@
       <c r="C462" s="2">
         <v>7</v>
       </c>
-      <c r="D462">
-        <v>0</v>
+      <c r="D462" s="1">
+        <v>1</v>
       </c>
       <c r="E462">
         <v>0</v>
@@ -11056,8 +11056,8 @@
       <c r="E464">
         <v>0</v>
       </c>
-      <c r="F464" s="1">
-        <v>1</v>
+      <c r="F464">
+        <v>0</v>
       </c>
       <c r="G464">
         <v>0</v>
@@ -11142,8 +11142,8 @@
       <c r="C468" s="2">
         <v>5</v>
       </c>
-      <c r="D468">
-        <v>0</v>
+      <c r="D468" s="1">
+        <v>1</v>
       </c>
       <c r="E468">
         <v>0</v>
@@ -11237,8 +11237,8 @@
       <c r="D472">
         <v>0</v>
       </c>
-      <c r="E472" s="1">
-        <v>1</v>
+      <c r="E472">
+        <v>0</v>
       </c>
       <c r="F472">
         <v>0</v>
@@ -11332,11 +11332,11 @@
       <c r="E476">
         <v>0</v>
       </c>
-      <c r="F476">
-        <v>0</v>
-      </c>
-      <c r="G476">
-        <v>0</v>
+      <c r="F476" s="1">
+        <v>1</v>
+      </c>
+      <c r="G476" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.4">
@@ -11424,8 +11424,8 @@
       <c r="E480">
         <v>0</v>
       </c>
-      <c r="F480" s="1">
-        <v>1</v>
+      <c r="F480">
+        <v>0</v>
       </c>
       <c r="G480">
         <v>0</v>
@@ -11470,11 +11470,11 @@
       <c r="E482">
         <v>0</v>
       </c>
-      <c r="F482">
-        <v>0</v>
-      </c>
-      <c r="G482">
-        <v>0</v>
+      <c r="F482" s="1">
+        <v>1</v>
+      </c>
+      <c r="G482" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.4">
@@ -11602,14 +11602,14 @@
       <c r="C488" s="2">
         <v>1</v>
       </c>
-      <c r="D488" s="1">
-        <v>1</v>
+      <c r="D488">
+        <v>0</v>
       </c>
       <c r="E488">
         <v>0</v>
       </c>
-      <c r="F488">
-        <v>0</v>
+      <c r="F488" s="1">
+        <v>1</v>
       </c>
       <c r="G488">
         <v>0</v>
@@ -11795,8 +11795,8 @@
       <c r="F496">
         <v>0</v>
       </c>
-      <c r="G496" s="1">
-        <v>1</v>
+      <c r="G496">
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.4">
@@ -11884,8 +11884,8 @@
       <c r="E500">
         <v>0</v>
       </c>
-      <c r="F500">
-        <v>0</v>
+      <c r="F500" s="1">
+        <v>1</v>
       </c>
       <c r="G500">
         <v>0</v>
@@ -11933,8 +11933,8 @@
       <c r="F502">
         <v>0</v>
       </c>
-      <c r="G502">
-        <v>0</v>
+      <c r="G502" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.4">
@@ -11970,8 +11970,8 @@
       <c r="C504" s="2">
         <v>1</v>
       </c>
-      <c r="D504" s="1">
-        <v>1</v>
+      <c r="D504">
+        <v>0</v>
       </c>
       <c r="E504">
         <v>0</v>
@@ -12163,8 +12163,8 @@
       <c r="F512">
         <v>0</v>
       </c>
-      <c r="G512" s="1">
-        <v>1</v>
+      <c r="G512">
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.4">
@@ -12206,8 +12206,8 @@
       <c r="E514">
         <v>0</v>
       </c>
-      <c r="F514">
-        <v>0</v>
+      <c r="F514" s="1">
+        <v>1</v>
       </c>
       <c r="G514">
         <v>0</v>
@@ -12255,8 +12255,8 @@
       <c r="F516">
         <v>0</v>
       </c>
-      <c r="G516">
-        <v>0</v>
+      <c r="G516" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.4">
@@ -12295,8 +12295,8 @@
       <c r="D518">
         <v>0</v>
       </c>
-      <c r="E518">
-        <v>0</v>
+      <c r="E518" s="1">
+        <v>1</v>
       </c>
       <c r="F518">
         <v>0</v>
@@ -12338,11 +12338,11 @@
       <c r="C520" s="2">
         <v>1</v>
       </c>
-      <c r="D520">
-        <v>0</v>
-      </c>
-      <c r="E520" s="1">
-        <v>1</v>
+      <c r="D520" s="1">
+        <v>1</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
       </c>
       <c r="F520">
         <v>0</v>
@@ -12528,8 +12528,8 @@
       <c r="E528">
         <v>0</v>
       </c>
-      <c r="F528" s="1">
-        <v>1</v>
+      <c r="F528">
+        <v>0</v>
       </c>
       <c r="G528">
         <v>0</v>
@@ -12614,8 +12614,8 @@
       <c r="C532" s="2">
         <v>5</v>
       </c>
-      <c r="D532">
-        <v>0</v>
+      <c r="D532" s="1">
+        <v>1</v>
       </c>
       <c r="E532">
         <v>0</v>
@@ -12663,8 +12663,8 @@
       <c r="D534">
         <v>0</v>
       </c>
-      <c r="E534">
-        <v>0</v>
+      <c r="E534" s="1">
+        <v>1</v>
       </c>
       <c r="F534">
         <v>0</v>
@@ -12709,8 +12709,8 @@
       <c r="D536">
         <v>0</v>
       </c>
-      <c r="E536" s="1">
-        <v>1</v>
+      <c r="E536">
+        <v>0</v>
       </c>
       <c r="F536">
         <v>0</v>
@@ -12896,8 +12896,8 @@
       <c r="E544">
         <v>0</v>
       </c>
-      <c r="F544" s="1">
-        <v>1</v>
+      <c r="F544">
+        <v>0</v>
       </c>
       <c r="G544">
         <v>0</v>
@@ -13074,8 +13074,8 @@
       <c r="C552" s="2">
         <v>1</v>
       </c>
-      <c r="D552" s="1">
-        <v>1</v>
+      <c r="D552">
+        <v>0</v>
       </c>
       <c r="E552">
         <v>0</v>
@@ -13258,17 +13258,17 @@
       <c r="C560" s="2">
         <v>1</v>
       </c>
-      <c r="D560">
-        <v>0</v>
-      </c>
-      <c r="E560" s="1">
-        <v>1</v>
+      <c r="D560" s="1">
+        <v>1</v>
+      </c>
+      <c r="E560">
+        <v>0</v>
       </c>
       <c r="F560">
         <v>0</v>
       </c>
-      <c r="G560" s="1">
-        <v>1</v>
+      <c r="G560">
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.4">
@@ -13307,8 +13307,8 @@
       <c r="D562">
         <v>0</v>
       </c>
-      <c r="E562">
-        <v>0</v>
+      <c r="E562" s="1">
+        <v>1</v>
       </c>
       <c r="F562">
         <v>0</v>
@@ -13350,8 +13350,8 @@
       <c r="C564" s="2">
         <v>5</v>
       </c>
-      <c r="D564">
-        <v>0</v>
+      <c r="D564" s="1">
+        <v>1</v>
       </c>
       <c r="E564">
         <v>0</v>
@@ -13399,8 +13399,8 @@
       <c r="D566">
         <v>0</v>
       </c>
-      <c r="E566">
-        <v>0</v>
+      <c r="E566" s="1">
+        <v>1</v>
       </c>
       <c r="F566">
         <v>0</v>
@@ -13442,8 +13442,8 @@
       <c r="C568" s="2">
         <v>1</v>
       </c>
-      <c r="D568" s="1">
-        <v>1</v>
+      <c r="D568">
+        <v>0</v>
       </c>
       <c r="E568">
         <v>0</v>
@@ -13497,8 +13497,8 @@
       <c r="F570">
         <v>0</v>
       </c>
-      <c r="G570">
-        <v>0</v>
+      <c r="G570" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.4">
@@ -13629,14 +13629,14 @@
       <c r="D576">
         <v>0</v>
       </c>
-      <c r="E576" s="1">
-        <v>1</v>
+      <c r="E576">
+        <v>0</v>
       </c>
       <c r="F576">
         <v>0</v>
       </c>
-      <c r="G576" s="1">
-        <v>1</v>
+      <c r="G576">
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.4">
@@ -13727,8 +13727,8 @@
       <c r="F580">
         <v>0</v>
       </c>
-      <c r="G580">
-        <v>0</v>
+      <c r="G580" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.4">
@@ -13816,8 +13816,8 @@
       <c r="E584">
         <v>0</v>
       </c>
-      <c r="F584" s="1">
-        <v>1</v>
+      <c r="F584">
+        <v>0</v>
       </c>
       <c r="G584">
         <v>0</v>
@@ -13948,8 +13948,8 @@
       <c r="C590" s="2">
         <v>7</v>
       </c>
-      <c r="D590">
-        <v>0</v>
+      <c r="D590" s="1">
+        <v>1</v>
       </c>
       <c r="E590">
         <v>0</v>
@@ -13997,14 +13997,14 @@
       <c r="D592">
         <v>0</v>
       </c>
-      <c r="E592" s="1">
-        <v>1</v>
+      <c r="E592">
+        <v>0</v>
       </c>
       <c r="F592">
         <v>0</v>
       </c>
-      <c r="G592" s="1">
-        <v>1</v>
+      <c r="G592">
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.4">
@@ -14086,8 +14086,8 @@
       <c r="C596" s="2">
         <v>5</v>
       </c>
-      <c r="D596">
-        <v>0</v>
+      <c r="D596" s="1">
+        <v>1</v>
       </c>
       <c r="E596">
         <v>0</v>
@@ -14178,14 +14178,14 @@
       <c r="C600" s="2">
         <v>1</v>
       </c>
-      <c r="D600" s="1">
-        <v>1</v>
+      <c r="D600">
+        <v>0</v>
       </c>
       <c r="E600">
         <v>0</v>
       </c>
-      <c r="F600" s="1">
-        <v>1</v>
+      <c r="F600">
+        <v>0</v>
       </c>
       <c r="G600">
         <v>0</v>
@@ -14276,11 +14276,11 @@
       <c r="E604">
         <v>0</v>
       </c>
-      <c r="F604">
-        <v>0</v>
-      </c>
-      <c r="G604">
-        <v>0</v>
+      <c r="F604" s="1">
+        <v>1</v>
+      </c>
+      <c r="G604" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.4">
@@ -14365,14 +14365,14 @@
       <c r="D608">
         <v>0</v>
       </c>
-      <c r="E608" s="1">
-        <v>1</v>
+      <c r="E608">
+        <v>0</v>
       </c>
       <c r="F608">
         <v>0</v>
       </c>
-      <c r="G608" s="1">
-        <v>1</v>
+      <c r="G608">
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.4">
@@ -14414,11 +14414,11 @@
       <c r="E610">
         <v>0</v>
       </c>
-      <c r="F610">
-        <v>0</v>
-      </c>
-      <c r="G610">
-        <v>0</v>
+      <c r="F610" s="1">
+        <v>1</v>
+      </c>
+      <c r="G610" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.4">
@@ -14739,8 +14739,8 @@
       <c r="F624">
         <v>0</v>
       </c>
-      <c r="G624" s="1">
-        <v>1</v>
+      <c r="G624">
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.4">
@@ -14785,8 +14785,8 @@
       <c r="F626">
         <v>0</v>
       </c>
-      <c r="G626">
-        <v>0</v>
+      <c r="G626" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.4">
@@ -14831,8 +14831,8 @@
       <c r="F628">
         <v>0</v>
       </c>
-      <c r="G628" s="1">
-        <v>1</v>
+      <c r="G628">
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.4">
@@ -15150,8 +15150,8 @@
       <c r="E642">
         <v>0</v>
       </c>
-      <c r="F642">
-        <v>0</v>
+      <c r="F642" s="1">
+        <v>1</v>
       </c>
       <c r="G642">
         <v>0</v>
@@ -15199,8 +15199,8 @@
       <c r="F644">
         <v>0</v>
       </c>
-      <c r="G644" s="1">
-        <v>1</v>
+      <c r="G644">
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.4">
@@ -15558,14 +15558,14 @@
       <c r="C660" s="2">
         <v>5</v>
       </c>
-      <c r="D660">
-        <v>0</v>
+      <c r="D660" s="1">
+        <v>1</v>
       </c>
       <c r="E660">
         <v>0</v>
       </c>
-      <c r="F660" s="1">
-        <v>1</v>
+      <c r="F660">
+        <v>0</v>
       </c>
       <c r="G660">
         <v>0</v>
@@ -15607,8 +15607,8 @@
       <c r="D662">
         <v>0</v>
       </c>
-      <c r="E662">
-        <v>0</v>
+      <c r="E662" s="1">
+        <v>1</v>
       </c>
       <c r="F662">
         <v>0</v>
@@ -15659,8 +15659,8 @@
       <c r="F664">
         <v>0</v>
       </c>
-      <c r="G664" s="1">
-        <v>1</v>
+      <c r="G664">
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.4">
@@ -15751,8 +15751,8 @@
       <c r="F668">
         <v>0</v>
       </c>
-      <c r="G668" s="1">
-        <v>1</v>
+      <c r="G668">
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.4">
@@ -15840,8 +15840,8 @@
       <c r="E672">
         <v>0</v>
       </c>
-      <c r="F672">
-        <v>0</v>
+      <c r="F672" s="1">
+        <v>1</v>
       </c>
       <c r="G672" s="1">
         <v>1</v>
@@ -15935,8 +15935,8 @@
       <c r="F676">
         <v>0</v>
       </c>
-      <c r="G676" s="1">
-        <v>1</v>
+      <c r="G676">
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.4">
@@ -16018,8 +16018,8 @@
       <c r="C680" s="2">
         <v>1</v>
       </c>
-      <c r="D680">
-        <v>0</v>
+      <c r="D680" s="1">
+        <v>1</v>
       </c>
       <c r="E680">
         <v>0</v>
@@ -16110,8 +16110,8 @@
       <c r="C684" s="2">
         <v>5</v>
       </c>
-      <c r="D684">
-        <v>0</v>
+      <c r="D684" s="1">
+        <v>1</v>
       </c>
       <c r="E684">
         <v>0</v>
@@ -16208,11 +16208,11 @@
       <c r="E688">
         <v>0</v>
       </c>
-      <c r="F688">
-        <v>0</v>
-      </c>
-      <c r="G688">
-        <v>0</v>
+      <c r="F688" s="1">
+        <v>1</v>
+      </c>
+      <c r="G688" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.4">
@@ -16294,8 +16294,8 @@
       <c r="C692" s="2">
         <v>5</v>
       </c>
-      <c r="D692">
-        <v>0</v>
+      <c r="D692" s="1">
+        <v>1</v>
       </c>
       <c r="E692">
         <v>0</v>
@@ -16386,8 +16386,8 @@
       <c r="C696" s="2">
         <v>1</v>
       </c>
-      <c r="D696">
-        <v>0</v>
+      <c r="D696" s="1">
+        <v>1</v>
       </c>
       <c r="E696">
         <v>0</v>
@@ -16570,17 +16570,17 @@
       <c r="C704" s="2">
         <v>1</v>
       </c>
-      <c r="D704">
-        <v>0</v>
+      <c r="D704" s="1">
+        <v>1</v>
       </c>
       <c r="E704">
         <v>0</v>
       </c>
-      <c r="F704">
-        <v>0</v>
-      </c>
-      <c r="G704">
-        <v>0</v>
+      <c r="F704" s="1">
+        <v>1</v>
+      </c>
+      <c r="G704" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.4">
@@ -16754,8 +16754,8 @@
       <c r="C712" s="2">
         <v>1</v>
       </c>
-      <c r="D712">
-        <v>0</v>
+      <c r="D712" s="1">
+        <v>1</v>
       </c>
       <c r="E712" s="1">
         <v>1</v>
@@ -16938,8 +16938,8 @@
       <c r="C720" s="2">
         <v>1</v>
       </c>
-      <c r="D720">
-        <v>0</v>
+      <c r="D720" s="1">
+        <v>1</v>
       </c>
       <c r="E720" s="1">
         <v>1</v>
@@ -17033,8 +17033,8 @@
       <c r="D724">
         <v>0</v>
       </c>
-      <c r="E724">
-        <v>0</v>
+      <c r="E724" s="1">
+        <v>1</v>
       </c>
       <c r="F724" s="1">
         <v>1</v>
@@ -17131,8 +17131,8 @@
       <c r="F728" s="1">
         <v>1</v>
       </c>
-      <c r="G728">
-        <v>0</v>
+      <c r="G728" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.4">
@@ -17220,8 +17220,8 @@
       <c r="E732" s="1">
         <v>1</v>
       </c>
-      <c r="F732">
-        <v>0</v>
+      <c r="F732" s="1">
+        <v>1</v>
       </c>
       <c r="G732">
         <v>0</v>
@@ -17315,8 +17315,8 @@
       <c r="F736" s="1">
         <v>1</v>
       </c>
-      <c r="G736">
-        <v>0</v>
+      <c r="G736" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:7" x14ac:dyDescent="0.4">
@@ -17490,8 +17490,8 @@
       <c r="C744" s="2">
         <v>1</v>
       </c>
-      <c r="D744">
-        <v>0</v>
+      <c r="D744" s="1">
+        <v>1</v>
       </c>
       <c r="E744">
         <v>0</v>
@@ -17683,8 +17683,8 @@
       <c r="F752">
         <v>0</v>
       </c>
-      <c r="G752">
-        <v>0</v>
+      <c r="G752" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.4">
@@ -17812,11 +17812,11 @@
       <c r="C758" s="2">
         <v>7</v>
       </c>
-      <c r="D758">
-        <v>0</v>
-      </c>
-      <c r="E758">
-        <v>0</v>
+      <c r="D758" s="1">
+        <v>1</v>
+      </c>
+      <c r="E758" s="1">
+        <v>1</v>
       </c>
       <c r="F758">
         <v>0</v>
@@ -17858,8 +17858,8 @@
       <c r="C760" s="2">
         <v>1</v>
       </c>
-      <c r="D760">
-        <v>0</v>
+      <c r="D760" s="1">
+        <v>1</v>
       </c>
       <c r="E760">
         <v>0</v>
@@ -17867,8 +17867,8 @@
       <c r="F760">
         <v>0</v>
       </c>
-      <c r="G760" s="1">
-        <v>1</v>
+      <c r="G760">
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.4">
@@ -17950,8 +17950,8 @@
       <c r="C764" s="2">
         <v>5</v>
       </c>
-      <c r="D764">
-        <v>0</v>
+      <c r="D764" s="1">
+        <v>1</v>
       </c>
       <c r="E764">
         <v>0</v>
@@ -18048,11 +18048,11 @@
       <c r="E768">
         <v>0</v>
       </c>
-      <c r="F768">
-        <v>0</v>
-      </c>
-      <c r="G768">
-        <v>0</v>
+      <c r="F768" s="1">
+        <v>1</v>
+      </c>
+      <c r="G768" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.4">
@@ -18143,8 +18143,8 @@
       <c r="F772">
         <v>0</v>
       </c>
-      <c r="G772" s="1">
-        <v>1</v>
+      <c r="G772">
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.4">
@@ -18226,8 +18226,8 @@
       <c r="C776" s="2">
         <v>1</v>
       </c>
-      <c r="D776">
-        <v>0</v>
+      <c r="D776" s="1">
+        <v>1</v>
       </c>
       <c r="E776">
         <v>0</v>
@@ -18833,8 +18833,8 @@
       <c r="F802">
         <v>0</v>
       </c>
-      <c r="G802">
-        <v>0</v>
+      <c r="G802" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.4">
@@ -18876,8 +18876,8 @@
       <c r="E804">
         <v>0</v>
       </c>
-      <c r="F804">
-        <v>0</v>
+      <c r="F804" s="1">
+        <v>1</v>
       </c>
       <c r="G804">
         <v>0</v>
@@ -18919,8 +18919,8 @@
       <c r="D806">
         <v>0</v>
       </c>
-      <c r="E806">
-        <v>0</v>
+      <c r="E806" s="1">
+        <v>1</v>
       </c>
       <c r="F806">
         <v>0</v>
@@ -18962,8 +18962,8 @@
       <c r="C808" s="2">
         <v>1</v>
       </c>
-      <c r="D808">
-        <v>0</v>
+      <c r="D808" s="1">
+        <v>1</v>
       </c>
       <c r="E808">
         <v>0</v>
@@ -19054,8 +19054,8 @@
       <c r="C812" s="2">
         <v>5</v>
       </c>
-      <c r="D812">
-        <v>0</v>
+      <c r="D812" s="1">
+        <v>1</v>
       </c>
       <c r="E812">
         <v>0</v>
@@ -19152,11 +19152,11 @@
       <c r="E816">
         <v>0</v>
       </c>
-      <c r="F816">
-        <v>0</v>
-      </c>
-      <c r="G816">
-        <v>0</v>
+      <c r="F816" s="1">
+        <v>1</v>
+      </c>
+      <c r="G816" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.4">
@@ -19238,8 +19238,8 @@
       <c r="C820" s="2">
         <v>5</v>
       </c>
-      <c r="D820">
-        <v>0</v>
+      <c r="D820" s="1">
+        <v>1</v>
       </c>
       <c r="E820">
         <v>0</v>
@@ -19330,8 +19330,8 @@
       <c r="C824" s="2">
         <v>1</v>
       </c>
-      <c r="D824">
-        <v>0</v>
+      <c r="D824" s="1">
+        <v>1</v>
       </c>
       <c r="E824">
         <v>0</v>
@@ -19514,17 +19514,17 @@
       <c r="C832" s="2">
         <v>1</v>
       </c>
-      <c r="D832">
-        <v>0</v>
+      <c r="D832" s="1">
+        <v>1</v>
       </c>
       <c r="E832">
         <v>0</v>
       </c>
-      <c r="F832">
-        <v>0</v>
-      </c>
-      <c r="G832">
-        <v>0</v>
+      <c r="F832" s="1">
+        <v>1</v>
+      </c>
+      <c r="G832" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:7" x14ac:dyDescent="0.4">
@@ -19698,8 +19698,8 @@
       <c r="C840" s="2">
         <v>1</v>
       </c>
-      <c r="D840">
-        <v>0</v>
+      <c r="D840" s="1">
+        <v>1</v>
       </c>
       <c r="E840" s="1">
         <v>1</v>
@@ -19882,8 +19882,8 @@
       <c r="C848" s="2">
         <v>1</v>
       </c>
-      <c r="D848">
-        <v>0</v>
+      <c r="D848" s="1">
+        <v>1</v>
       </c>
       <c r="E848" s="1">
         <v>1</v>
@@ -19977,8 +19977,8 @@
       <c r="D852">
         <v>0</v>
       </c>
-      <c r="E852">
-        <v>0</v>
+      <c r="E852" s="1">
+        <v>1</v>
       </c>
       <c r="F852" s="1">
         <v>1</v>
@@ -20075,8 +20075,8 @@
       <c r="F856" s="1">
         <v>1</v>
       </c>
-      <c r="G856">
-        <v>0</v>
+      <c r="G856" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.4">
@@ -20164,8 +20164,8 @@
       <c r="E860" s="1">
         <v>1</v>
       </c>
-      <c r="F860">
-        <v>0</v>
+      <c r="F860" s="1">
+        <v>1</v>
       </c>
       <c r="G860">
         <v>0</v>
@@ -20259,8 +20259,8 @@
       <c r="F864" s="1">
         <v>1</v>
       </c>
-      <c r="G864">
-        <v>0</v>
+      <c r="G864" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.4">
@@ -20434,8 +20434,8 @@
       <c r="C872" s="2">
         <v>1</v>
       </c>
-      <c r="D872">
-        <v>0</v>
+      <c r="D872" s="1">
+        <v>1</v>
       </c>
       <c r="E872">
         <v>0</v>
@@ -20618,8 +20618,8 @@
       <c r="C880" s="2">
         <v>1</v>
       </c>
-      <c r="D880">
-        <v>0</v>
+      <c r="D880" s="1">
+        <v>1</v>
       </c>
       <c r="E880">
         <v>0</v>
@@ -20673,8 +20673,8 @@
       <c r="F882">
         <v>0</v>
       </c>
-      <c r="G882">
-        <v>0</v>
+      <c r="G882" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:7" x14ac:dyDescent="0.4">
@@ -20719,8 +20719,8 @@
       <c r="F884">
         <v>0</v>
       </c>
-      <c r="G884">
-        <v>0</v>
+      <c r="G884" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:7" x14ac:dyDescent="0.4">
@@ -20762,8 +20762,8 @@
       <c r="E886">
         <v>0</v>
       </c>
-      <c r="F886">
-        <v>0</v>
+      <c r="F886" s="1">
+        <v>1</v>
       </c>
       <c r="G886">
         <v>0</v>
@@ -20802,8 +20802,8 @@
       <c r="C888" s="2">
         <v>1</v>
       </c>
-      <c r="D888">
-        <v>0</v>
+      <c r="D888" s="1">
+        <v>1</v>
       </c>
       <c r="E888">
         <v>0</v>
@@ -20811,8 +20811,8 @@
       <c r="F888">
         <v>0</v>
       </c>
-      <c r="G888" s="1">
-        <v>1</v>
+      <c r="G888">
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:7" x14ac:dyDescent="0.4">
@@ -20857,8 +20857,8 @@
       <c r="F890">
         <v>0</v>
       </c>
-      <c r="G890">
-        <v>0</v>
+      <c r="G890" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:7" x14ac:dyDescent="0.4">
@@ -20903,8 +20903,8 @@
       <c r="F892">
         <v>0</v>
       </c>
-      <c r="G892">
-        <v>0</v>
+      <c r="G892" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:7" x14ac:dyDescent="0.4">
@@ -20949,8 +20949,8 @@
       <c r="F894">
         <v>0</v>
       </c>
-      <c r="G894">
-        <v>0</v>
+      <c r="G894" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:7" x14ac:dyDescent="0.4">
@@ -20992,11 +20992,11 @@
       <c r="E896">
         <v>0</v>
       </c>
-      <c r="F896">
-        <v>0</v>
-      </c>
-      <c r="G896">
-        <v>0</v>
+      <c r="F896" s="1">
+        <v>1</v>
+      </c>
+      <c r="G896" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:7" x14ac:dyDescent="0.4">
@@ -21087,8 +21087,8 @@
       <c r="F900">
         <v>0</v>
       </c>
-      <c r="G900" s="1">
-        <v>1</v>
+      <c r="G900">
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.4">
@@ -21268,11 +21268,11 @@
       <c r="E908">
         <v>0</v>
       </c>
-      <c r="F908" s="1">
-        <v>1</v>
-      </c>
-      <c r="G908">
-        <v>0</v>
+      <c r="F908">
+        <v>0</v>
+      </c>
+      <c r="G908" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.4">
@@ -21452,8 +21452,8 @@
       <c r="E916">
         <v>0</v>
       </c>
-      <c r="F916">
-        <v>0</v>
+      <c r="F916" s="1">
+        <v>1</v>
       </c>
       <c r="G916">
         <v>0</v>
@@ -21633,11 +21633,11 @@
       <c r="D924">
         <v>0</v>
       </c>
-      <c r="E924">
-        <v>0</v>
-      </c>
-      <c r="F924" s="1">
-        <v>1</v>
+      <c r="E924" s="1">
+        <v>1</v>
+      </c>
+      <c r="F924">
+        <v>0</v>
       </c>
       <c r="G924">
         <v>0</v>
@@ -21774,11 +21774,11 @@
       <c r="E930">
         <v>0</v>
       </c>
-      <c r="F930">
-        <v>0</v>
-      </c>
-      <c r="G930">
-        <v>0</v>
+      <c r="F930" s="1">
+        <v>1</v>
+      </c>
+      <c r="G930" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.4">
@@ -21814,11 +21814,11 @@
       <c r="C932" s="2">
         <v>5</v>
       </c>
-      <c r="D932">
-        <v>0</v>
-      </c>
-      <c r="E932">
-        <v>0</v>
+      <c r="D932" s="1">
+        <v>1</v>
+      </c>
+      <c r="E932" s="1">
+        <v>1</v>
       </c>
       <c r="F932">
         <v>0</v>
@@ -21906,14 +21906,14 @@
       <c r="C936" s="2">
         <v>1</v>
       </c>
-      <c r="D936">
-        <v>0</v>
+      <c r="D936" s="1">
+        <v>1</v>
       </c>
       <c r="E936">
         <v>0</v>
       </c>
-      <c r="F936" s="1">
-        <v>1</v>
+      <c r="F936">
+        <v>0</v>
       </c>
       <c r="G936">
         <v>0</v>
@@ -21955,11 +21955,11 @@
       <c r="D938">
         <v>0</v>
       </c>
-      <c r="E938">
-        <v>0</v>
-      </c>
-      <c r="F938" s="1">
-        <v>1</v>
+      <c r="E938" s="1">
+        <v>1</v>
+      </c>
+      <c r="F938">
+        <v>0</v>
       </c>
       <c r="G938">
         <v>0</v>
@@ -22047,11 +22047,11 @@
       <c r="D942">
         <v>0</v>
       </c>
-      <c r="E942">
-        <v>0</v>
-      </c>
-      <c r="F942" s="1">
-        <v>1</v>
+      <c r="E942" s="1">
+        <v>1</v>
+      </c>
+      <c r="F942">
+        <v>0</v>
       </c>
       <c r="G942">
         <v>0</v>
@@ -22090,14 +22090,14 @@
       <c r="C944" s="2">
         <v>1</v>
       </c>
-      <c r="D944">
-        <v>0</v>
+      <c r="D944" s="1">
+        <v>1</v>
       </c>
       <c r="E944">
         <v>0</v>
       </c>
-      <c r="F944" s="1">
-        <v>1</v>
+      <c r="F944">
+        <v>0</v>
       </c>
       <c r="G944">
         <v>0</v>
@@ -22142,11 +22142,11 @@
       <c r="E946">
         <v>0</v>
       </c>
-      <c r="F946">
-        <v>0</v>
-      </c>
-      <c r="G946" s="1">
-        <v>1</v>
+      <c r="F946" s="1">
+        <v>1</v>
+      </c>
+      <c r="G946">
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.4">
@@ -22185,8 +22185,8 @@
       <c r="D948">
         <v>0</v>
       </c>
-      <c r="E948">
-        <v>0</v>
+      <c r="E948" s="1">
+        <v>1</v>
       </c>
       <c r="F948">
         <v>0</v>
@@ -22228,8 +22228,8 @@
       <c r="C950" s="2">
         <v>7</v>
       </c>
-      <c r="D950">
-        <v>0</v>
+      <c r="D950" s="1">
+        <v>1</v>
       </c>
       <c r="E950">
         <v>0</v>
@@ -22237,8 +22237,8 @@
       <c r="F950">
         <v>0</v>
       </c>
-      <c r="G950" s="1">
-        <v>1</v>
+      <c r="G950">
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.4">
@@ -22277,8 +22277,8 @@
       <c r="D952">
         <v>0</v>
       </c>
-      <c r="E952">
-        <v>0</v>
+      <c r="E952" s="1">
+        <v>1</v>
       </c>
       <c r="F952">
         <v>0</v>
@@ -22326,11 +22326,11 @@
       <c r="E954">
         <v>0</v>
       </c>
-      <c r="F954">
-        <v>0</v>
-      </c>
-      <c r="G954" s="1">
-        <v>1</v>
+      <c r="F954" s="1">
+        <v>1</v>
+      </c>
+      <c r="G954">
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:7" x14ac:dyDescent="0.4">
@@ -22375,8 +22375,8 @@
       <c r="F956">
         <v>0</v>
       </c>
-      <c r="G956">
-        <v>0</v>
+      <c r="G956" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.4">
@@ -22418,8 +22418,8 @@
       <c r="E958">
         <v>0</v>
       </c>
-      <c r="F958">
-        <v>0</v>
+      <c r="F958" s="1">
+        <v>1</v>
       </c>
       <c r="G958">
         <v>0</v>
@@ -22461,11 +22461,11 @@
       <c r="D960">
         <v>0</v>
       </c>
-      <c r="E960">
-        <v>0</v>
-      </c>
-      <c r="F960" s="1">
-        <v>1</v>
+      <c r="E960" s="1">
+        <v>1</v>
+      </c>
+      <c r="F960">
+        <v>0</v>
       </c>
       <c r="G960">
         <v>0</v>
@@ -22510,11 +22510,11 @@
       <c r="E962">
         <v>0</v>
       </c>
-      <c r="F962" s="1">
-        <v>1</v>
-      </c>
-      <c r="G962">
-        <v>0</v>
+      <c r="F962">
+        <v>0</v>
+      </c>
+      <c r="G962" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="963" spans="1:7" x14ac:dyDescent="0.4">
@@ -22599,11 +22599,11 @@
       <c r="D966">
         <v>0</v>
       </c>
-      <c r="E966">
-        <v>0</v>
-      </c>
-      <c r="F966" s="1">
-        <v>1</v>
+      <c r="E966" s="1">
+        <v>1</v>
+      </c>
+      <c r="F966">
+        <v>0</v>
       </c>
       <c r="G966">
         <v>0</v>
@@ -22734,8 +22734,8 @@
       <c r="C972" s="2">
         <v>5</v>
       </c>
-      <c r="D972">
-        <v>0</v>
+      <c r="D972" s="1">
+        <v>1</v>
       </c>
       <c r="E972">
         <v>0</v>
@@ -22786,11 +22786,11 @@
       <c r="E974">
         <v>0</v>
       </c>
-      <c r="F974">
-        <v>0</v>
-      </c>
-      <c r="G974" s="1">
-        <v>1</v>
+      <c r="F974" s="1">
+        <v>1</v>
+      </c>
+      <c r="G974">
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:7" x14ac:dyDescent="0.4">
@@ -22832,8 +22832,8 @@
       <c r="E976">
         <v>0</v>
       </c>
-      <c r="F976">
-        <v>0</v>
+      <c r="F976" s="1">
+        <v>1</v>
       </c>
       <c r="G976">
         <v>0</v>
@@ -22872,8 +22872,8 @@
       <c r="C978" s="2">
         <v>3</v>
       </c>
-      <c r="D978">
-        <v>0</v>
+      <c r="D978" s="1">
+        <v>1</v>
       </c>
       <c r="E978">
         <v>0</v>
@@ -22881,8 +22881,8 @@
       <c r="F978">
         <v>0</v>
       </c>
-      <c r="G978" s="1">
-        <v>1</v>
+      <c r="G978">
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:7" x14ac:dyDescent="0.4">
@@ -22927,8 +22927,8 @@
       <c r="F980">
         <v>0</v>
       </c>
-      <c r="G980">
-        <v>0</v>
+      <c r="G980" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="981" spans="1:7" x14ac:dyDescent="0.4">
@@ -22970,11 +22970,11 @@
       <c r="E982">
         <v>0</v>
       </c>
-      <c r="F982">
-        <v>0</v>
-      </c>
-      <c r="G982" s="1">
-        <v>1</v>
+      <c r="F982" s="1">
+        <v>1</v>
+      </c>
+      <c r="G982">
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:7" x14ac:dyDescent="0.4">
@@ -23016,8 +23016,8 @@
       <c r="E984">
         <v>0</v>
       </c>
-      <c r="F984">
-        <v>0</v>
+      <c r="F984" s="1">
+        <v>1</v>
       </c>
       <c r="G984">
         <v>0</v>
@@ -23102,8 +23102,8 @@
       <c r="C988" s="2">
         <v>5</v>
       </c>
-      <c r="D988">
-        <v>0</v>
+      <c r="D988" s="1">
+        <v>1</v>
       </c>
       <c r="E988">
         <v>0</v>
@@ -23154,11 +23154,11 @@
       <c r="E990">
         <v>0</v>
       </c>
-      <c r="F990">
-        <v>0</v>
-      </c>
-      <c r="G990" s="1">
-        <v>1</v>
+      <c r="F990" s="1">
+        <v>1</v>
+      </c>
+      <c r="G990">
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.4">
@@ -23200,8 +23200,8 @@
       <c r="E992">
         <v>0</v>
       </c>
-      <c r="F992">
-        <v>0</v>
+      <c r="F992" s="1">
+        <v>1</v>
       </c>
       <c r="G992">
         <v>0</v>
@@ -23240,11 +23240,11 @@
       <c r="C994" s="2">
         <v>3</v>
       </c>
-      <c r="D994">
-        <v>0</v>
-      </c>
-      <c r="E994" s="1">
-        <v>1</v>
+      <c r="D994" s="1">
+        <v>1</v>
+      </c>
+      <c r="E994">
+        <v>0</v>
       </c>
       <c r="F994">
         <v>0</v>
@@ -23286,8 +23286,8 @@
       <c r="C996" s="2">
         <v>5</v>
       </c>
-      <c r="D996" s="1">
-        <v>1</v>
+      <c r="D996">
+        <v>0</v>
       </c>
       <c r="E996">
         <v>0</v>
@@ -23295,8 +23295,8 @@
       <c r="F996">
         <v>0</v>
       </c>
-      <c r="G996">
-        <v>0</v>
+      <c r="G996" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.4">
@@ -23335,11 +23335,11 @@
       <c r="D998">
         <v>0</v>
       </c>
-      <c r="E998" s="1">
-        <v>1</v>
-      </c>
-      <c r="F998">
-        <v>0</v>
+      <c r="E998">
+        <v>0</v>
+      </c>
+      <c r="F998" s="1">
+        <v>1</v>
       </c>
       <c r="G998">
         <v>0</v>
@@ -23378,8 +23378,8 @@
       <c r="C1000" s="2">
         <v>1</v>
       </c>
-      <c r="D1000">
-        <v>0</v>
+      <c r="D1000" s="1">
+        <v>1</v>
       </c>
       <c r="E1000">
         <v>0</v>
@@ -23427,8 +23427,8 @@
       <c r="D1002">
         <v>0</v>
       </c>
-      <c r="E1002">
-        <v>0</v>
+      <c r="E1002" s="1">
+        <v>1</v>
       </c>
       <c r="F1002">
         <v>0</v>
@@ -23476,8 +23476,8 @@
       <c r="E1004">
         <v>0</v>
       </c>
-      <c r="F1004">
-        <v>0</v>
+      <c r="F1004" s="1">
+        <v>1</v>
       </c>
       <c r="G1004">
         <v>0</v>
@@ -23519,8 +23519,8 @@
       <c r="D1006">
         <v>0</v>
       </c>
-      <c r="E1006">
-        <v>0</v>
+      <c r="E1006" s="1">
+        <v>1</v>
       </c>
       <c r="F1006">
         <v>0</v>
@@ -23562,8 +23562,8 @@
       <c r="C1008" s="2">
         <v>1</v>
       </c>
-      <c r="D1008">
-        <v>0</v>
+      <c r="D1008" s="1">
+        <v>1</v>
       </c>
       <c r="E1008">
         <v>0</v>
@@ -23614,8 +23614,8 @@
       <c r="E1010">
         <v>0</v>
       </c>
-      <c r="F1010">
-        <v>0</v>
+      <c r="F1010" s="1">
+        <v>1</v>
       </c>
       <c r="G1010">
         <v>0</v>
@@ -23657,14 +23657,14 @@
       <c r="D1012">
         <v>0</v>
       </c>
-      <c r="E1012">
-        <v>0</v>
+      <c r="E1012" s="1">
+        <v>1</v>
       </c>
       <c r="F1012">
         <v>0</v>
       </c>
-      <c r="G1012" s="1">
-        <v>1</v>
+      <c r="G1012">
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:7" x14ac:dyDescent="0.4">
@@ -23700,14 +23700,14 @@
       <c r="C1014" s="2">
         <v>7</v>
       </c>
-      <c r="D1014">
-        <v>0</v>
+      <c r="D1014" s="1">
+        <v>1</v>
       </c>
       <c r="E1014">
         <v>0</v>
       </c>
-      <c r="F1014" s="1">
-        <v>1</v>
+      <c r="F1014">
+        <v>0</v>
       </c>
       <c r="G1014">
         <v>0</v>
@@ -23749,8 +23749,8 @@
       <c r="D1016">
         <v>0</v>
       </c>
-      <c r="E1016">
-        <v>0</v>
+      <c r="E1016" s="1">
+        <v>1</v>
       </c>
       <c r="F1016">
         <v>0</v>
@@ -23798,8 +23798,8 @@
       <c r="E1018">
         <v>0</v>
       </c>
-      <c r="F1018">
-        <v>0</v>
+      <c r="F1018" s="1">
+        <v>1</v>
       </c>
       <c r="G1018">
         <v>0</v>
@@ -23847,8 +23847,8 @@
       <c r="F1020">
         <v>0</v>
       </c>
-      <c r="G1020">
-        <v>0</v>
+      <c r="G1020" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.4">
@@ -23890,8 +23890,8 @@
       <c r="E1022">
         <v>0</v>
       </c>
-      <c r="F1022">
-        <v>0</v>
+      <c r="F1022" s="1">
+        <v>1</v>
       </c>
       <c r="G1022">
         <v>0</v>
@@ -23933,8 +23933,8 @@
       <c r="D1024">
         <v>0</v>
       </c>
-      <c r="E1024">
-        <v>0</v>
+      <c r="E1024" s="1">
+        <v>1</v>
       </c>
       <c r="F1024">
         <v>0</v>
@@ -23979,14 +23979,14 @@
       <c r="D1026">
         <v>0</v>
       </c>
-      <c r="E1026" s="1">
-        <v>1</v>
+      <c r="E1026">
+        <v>0</v>
       </c>
       <c r="F1026">
         <v>0</v>
       </c>
-      <c r="G1026">
-        <v>0</v>
+      <c r="G1026" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:7" x14ac:dyDescent="0.4">
@@ -24022,14 +24022,14 @@
       <c r="C1028" s="2">
         <v>5</v>
       </c>
-      <c r="D1028" s="1">
-        <v>1</v>
+      <c r="D1028">
+        <v>0</v>
       </c>
       <c r="E1028">
         <v>0</v>
       </c>
-      <c r="F1028">
-        <v>0</v>
+      <c r="F1028" s="1">
+        <v>1</v>
       </c>
       <c r="G1028">
         <v>0</v>
@@ -24120,8 +24120,8 @@
       <c r="E1032">
         <v>0</v>
       </c>
-      <c r="F1032">
-        <v>0</v>
+      <c r="F1032" s="1">
+        <v>1</v>
       </c>
       <c r="G1032">
         <v>0</v>
@@ -24169,8 +24169,8 @@
       <c r="F1034">
         <v>0</v>
       </c>
-      <c r="G1034">
-        <v>0</v>
+      <c r="G1034" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:7" x14ac:dyDescent="0.4">
@@ -24206,8 +24206,8 @@
       <c r="C1036" s="2">
         <v>5</v>
       </c>
-      <c r="D1036">
-        <v>0</v>
+      <c r="D1036" s="1">
+        <v>1</v>
       </c>
       <c r="E1036">
         <v>0</v>
@@ -24258,8 +24258,8 @@
       <c r="E1038">
         <v>0</v>
       </c>
-      <c r="F1038">
-        <v>0</v>
+      <c r="F1038" s="1">
+        <v>1</v>
       </c>
       <c r="G1038">
         <v>0</v>
@@ -24304,8 +24304,8 @@
       <c r="E1040">
         <v>0</v>
       </c>
-      <c r="F1040">
-        <v>0</v>
+      <c r="F1040" s="1">
+        <v>1</v>
       </c>
       <c r="G1040">
         <v>0</v>
@@ -24344,8 +24344,8 @@
       <c r="C1042" s="2">
         <v>3</v>
       </c>
-      <c r="D1042">
-        <v>0</v>
+      <c r="D1042" s="1">
+        <v>1</v>
       </c>
       <c r="E1042">
         <v>0</v>
@@ -24482,8 +24482,8 @@
       <c r="C1048" s="2">
         <v>1</v>
       </c>
-      <c r="D1048">
-        <v>0</v>
+      <c r="D1048" s="1">
+        <v>1</v>
       </c>
       <c r="E1048">
         <v>0</v>
@@ -24580,11 +24580,11 @@
       <c r="E1052">
         <v>0</v>
       </c>
-      <c r="F1052">
-        <v>0</v>
-      </c>
-      <c r="G1052">
-        <v>0</v>
+      <c r="F1052" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1052" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:7" x14ac:dyDescent="0.4">
@@ -24623,8 +24623,8 @@
       <c r="D1054">
         <v>0</v>
       </c>
-      <c r="E1054">
-        <v>0</v>
+      <c r="E1054" s="1">
+        <v>1</v>
       </c>
       <c r="F1054">
         <v>0</v>
@@ -24666,8 +24666,8 @@
       <c r="C1056" s="2">
         <v>1</v>
       </c>
-      <c r="D1056">
-        <v>0</v>
+      <c r="D1056" s="1">
+        <v>1</v>
       </c>
       <c r="E1056">
         <v>0</v>
@@ -24675,8 +24675,8 @@
       <c r="F1056" s="1">
         <v>1</v>
       </c>
-      <c r="G1056">
-        <v>0</v>
+      <c r="G1056" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.4">
@@ -24764,11 +24764,11 @@
       <c r="E1060">
         <v>0</v>
       </c>
-      <c r="F1060">
-        <v>0</v>
-      </c>
-      <c r="G1060">
-        <v>0</v>
+      <c r="F1060" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1060" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:7" x14ac:dyDescent="0.4">
@@ -24807,8 +24807,8 @@
       <c r="D1062">
         <v>0</v>
       </c>
-      <c r="E1062">
-        <v>0</v>
+      <c r="E1062" s="1">
+        <v>1</v>
       </c>
       <c r="F1062">
         <v>0</v>
@@ -24850,14 +24850,14 @@
       <c r="C1064" s="2">
         <v>1</v>
       </c>
-      <c r="D1064">
-        <v>0</v>
+      <c r="D1064" s="1">
+        <v>1</v>
       </c>
       <c r="E1064">
         <v>0</v>
       </c>
-      <c r="F1064" s="1">
-        <v>1</v>
+      <c r="F1064">
+        <v>0</v>
       </c>
       <c r="G1064">
         <v>0</v>
@@ -24899,11 +24899,11 @@
       <c r="D1066">
         <v>0</v>
       </c>
-      <c r="E1066">
-        <v>0</v>
-      </c>
-      <c r="F1066" s="1">
-        <v>1</v>
+      <c r="E1066" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1066">
+        <v>0</v>
       </c>
       <c r="G1066">
         <v>0</v>
@@ -24991,11 +24991,11 @@
       <c r="D1070">
         <v>0</v>
       </c>
-      <c r="E1070">
-        <v>0</v>
-      </c>
-      <c r="F1070" s="1">
-        <v>1</v>
+      <c r="E1070" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1070">
+        <v>0</v>
       </c>
       <c r="G1070">
         <v>0</v>
@@ -25034,14 +25034,14 @@
       <c r="C1072" s="2">
         <v>1</v>
       </c>
-      <c r="D1072">
-        <v>0</v>
+      <c r="D1072" s="1">
+        <v>1</v>
       </c>
       <c r="E1072">
         <v>0</v>
       </c>
-      <c r="F1072" s="1">
-        <v>1</v>
+      <c r="F1072">
+        <v>0</v>
       </c>
       <c r="G1072">
         <v>0</v>
@@ -25086,11 +25086,11 @@
       <c r="E1074">
         <v>0</v>
       </c>
-      <c r="F1074">
-        <v>0</v>
-      </c>
-      <c r="G1074" s="1">
-        <v>1</v>
+      <c r="F1074" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1074">
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.4">
@@ -25129,8 +25129,8 @@
       <c r="D1076">
         <v>0</v>
       </c>
-      <c r="E1076">
-        <v>0</v>
+      <c r="E1076" s="1">
+        <v>1</v>
       </c>
       <c r="F1076">
         <v>0</v>
@@ -25172,8 +25172,8 @@
       <c r="C1078" s="2">
         <v>7</v>
       </c>
-      <c r="D1078">
-        <v>0</v>
+      <c r="D1078" s="1">
+        <v>1</v>
       </c>
       <c r="E1078">
         <v>0</v>
@@ -25181,8 +25181,8 @@
       <c r="F1078">
         <v>0</v>
       </c>
-      <c r="G1078" s="1">
-        <v>1</v>
+      <c r="G1078">
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:7" x14ac:dyDescent="0.4">
@@ -25221,8 +25221,8 @@
       <c r="D1080">
         <v>0</v>
       </c>
-      <c r="E1080">
-        <v>0</v>
+      <c r="E1080" s="1">
+        <v>1</v>
       </c>
       <c r="F1080">
         <v>0</v>
@@ -25270,11 +25270,11 @@
       <c r="E1082">
         <v>0</v>
       </c>
-      <c r="F1082">
-        <v>0</v>
-      </c>
-      <c r="G1082" s="1">
-        <v>1</v>
+      <c r="F1082" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1082">
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.4">
@@ -25319,8 +25319,8 @@
       <c r="F1084">
         <v>0</v>
       </c>
-      <c r="G1084">
-        <v>0</v>
+      <c r="G1084" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.4">
@@ -25362,8 +25362,8 @@
       <c r="E1086">
         <v>0</v>
       </c>
-      <c r="F1086">
-        <v>0</v>
+      <c r="F1086" s="1">
+        <v>1</v>
       </c>
       <c r="G1086">
         <v>0</v>
@@ -25405,11 +25405,11 @@
       <c r="D1088">
         <v>0</v>
       </c>
-      <c r="E1088">
-        <v>0</v>
-      </c>
-      <c r="F1088" s="1">
-        <v>1</v>
+      <c r="E1088" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1088">
+        <v>0</v>
       </c>
       <c r="G1088">
         <v>0</v>
@@ -25454,11 +25454,11 @@
       <c r="E1090">
         <v>0</v>
       </c>
-      <c r="F1090" s="1">
-        <v>1</v>
-      </c>
-      <c r="G1090">
-        <v>0</v>
+      <c r="F1090">
+        <v>0</v>
+      </c>
+      <c r="G1090" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:7" x14ac:dyDescent="0.4">
@@ -25543,11 +25543,11 @@
       <c r="D1094">
         <v>0</v>
       </c>
-      <c r="E1094">
-        <v>0</v>
-      </c>
-      <c r="F1094" s="1">
-        <v>1</v>
+      <c r="E1094" s="1">
+        <v>1</v>
+      </c>
+      <c r="F1094">
+        <v>0</v>
       </c>
       <c r="G1094">
         <v>0</v>
@@ -25678,8 +25678,8 @@
       <c r="C1100" s="2">
         <v>5</v>
       </c>
-      <c r="D1100">
-        <v>0</v>
+      <c r="D1100" s="1">
+        <v>1</v>
       </c>
       <c r="E1100">
         <v>0</v>
@@ -25730,11 +25730,11 @@
       <c r="E1102">
         <v>0</v>
       </c>
-      <c r="F1102">
-        <v>0</v>
-      </c>
-      <c r="G1102" s="1">
-        <v>1</v>
+      <c r="F1102" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:7" x14ac:dyDescent="0.4">
@@ -25776,8 +25776,8 @@
       <c r="E1104">
         <v>0</v>
       </c>
-      <c r="F1104">
-        <v>0</v>
+      <c r="F1104" s="1">
+        <v>1</v>
       </c>
       <c r="G1104">
         <v>0</v>
@@ -25816,8 +25816,8 @@
       <c r="C1106" s="2">
         <v>3</v>
       </c>
-      <c r="D1106">
-        <v>0</v>
+      <c r="D1106" s="1">
+        <v>1</v>
       </c>
       <c r="E1106">
         <v>0</v>
@@ -25825,8 +25825,8 @@
       <c r="F1106">
         <v>0</v>
       </c>
-      <c r="G1106" s="1">
-        <v>1</v>
+      <c r="G1106">
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:7" x14ac:dyDescent="0.4">
@@ -25871,8 +25871,8 @@
       <c r="F1108">
         <v>0</v>
       </c>
-      <c r="G1108">
-        <v>0</v>
+      <c r="G1108" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.4">
@@ -25914,11 +25914,11 @@
       <c r="E1110">
         <v>0</v>
       </c>
-      <c r="F1110">
-        <v>0</v>
-      </c>
-      <c r="G1110" s="1">
-        <v>1</v>
+      <c r="F1110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1110">
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:7" x14ac:dyDescent="0.4">
@@ -25960,8 +25960,8 @@
       <c r="E1112">
         <v>0</v>
       </c>
-      <c r="F1112">
-        <v>0</v>
+      <c r="F1112" s="1">
+        <v>1</v>
       </c>
       <c r="G1112">
         <v>0</v>
@@ -26046,8 +26046,8 @@
       <c r="C1116" s="2">
         <v>5</v>
       </c>
-      <c r="D1116">
-        <v>0</v>
+      <c r="D1116" s="1">
+        <v>1</v>
       </c>
       <c r="E1116">
         <v>0</v>
@@ -26098,11 +26098,11 @@
       <c r="E1118">
         <v>0</v>
       </c>
-      <c r="F1118">
-        <v>0</v>
-      </c>
-      <c r="G1118" s="1">
-        <v>1</v>
+      <c r="F1118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.4">
@@ -26144,8 +26144,8 @@
       <c r="E1120">
         <v>0</v>
       </c>
-      <c r="F1120">
-        <v>0</v>
+      <c r="F1120" s="1">
+        <v>1</v>
       </c>
       <c r="G1120">
         <v>0</v>
@@ -26184,11 +26184,11 @@
       <c r="C1122" s="2">
         <v>3</v>
       </c>
-      <c r="D1122">
-        <v>0</v>
-      </c>
-      <c r="E1122" s="1">
-        <v>1</v>
+      <c r="D1122" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1122">
+        <v>0</v>
       </c>
       <c r="F1122">
         <v>0</v>
@@ -26230,8 +26230,8 @@
       <c r="C1124" s="2">
         <v>5</v>
       </c>
-      <c r="D1124" s="1">
-        <v>1</v>
+      <c r="D1124">
+        <v>0</v>
       </c>
       <c r="E1124">
         <v>0</v>
@@ -26239,8 +26239,8 @@
       <c r="F1124">
         <v>0</v>
       </c>
-      <c r="G1124">
-        <v>0</v>
+      <c r="G1124" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1125" spans="1:7" x14ac:dyDescent="0.4">
@@ -26279,11 +26279,11 @@
       <c r="D1126">
         <v>0</v>
       </c>
-      <c r="E1126" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1126">
-        <v>0</v>
+      <c r="E1126">
+        <v>0</v>
+      </c>
+      <c r="F1126" s="1">
+        <v>1</v>
       </c>
       <c r="G1126">
         <v>0</v>
@@ -26322,8 +26322,8 @@
       <c r="C1128" s="2">
         <v>1</v>
       </c>
-      <c r="D1128">
-        <v>0</v>
+      <c r="D1128" s="1">
+        <v>1</v>
       </c>
       <c r="E1128">
         <v>0</v>
@@ -26371,8 +26371,8 @@
       <c r="D1130">
         <v>0</v>
       </c>
-      <c r="E1130">
-        <v>0</v>
+      <c r="E1130" s="1">
+        <v>1</v>
       </c>
       <c r="F1130">
         <v>0</v>
@@ -26420,8 +26420,8 @@
       <c r="E1132">
         <v>0</v>
       </c>
-      <c r="F1132">
-        <v>0</v>
+      <c r="F1132" s="1">
+        <v>1</v>
       </c>
       <c r="G1132">
         <v>0</v>
@@ -26463,8 +26463,8 @@
       <c r="D1134">
         <v>0</v>
       </c>
-      <c r="E1134">
-        <v>0</v>
+      <c r="E1134" s="1">
+        <v>1</v>
       </c>
       <c r="F1134">
         <v>0</v>
@@ -26506,8 +26506,8 @@
       <c r="C1136" s="2">
         <v>1</v>
       </c>
-      <c r="D1136">
-        <v>0</v>
+      <c r="D1136" s="1">
+        <v>1</v>
       </c>
       <c r="E1136">
         <v>0</v>
@@ -26558,8 +26558,8 @@
       <c r="E1138">
         <v>0</v>
       </c>
-      <c r="F1138">
-        <v>0</v>
+      <c r="F1138" s="1">
+        <v>1</v>
       </c>
       <c r="G1138">
         <v>0</v>
@@ -26601,14 +26601,14 @@
       <c r="D1140">
         <v>0</v>
       </c>
-      <c r="E1140">
-        <v>0</v>
+      <c r="E1140" s="1">
+        <v>1</v>
       </c>
       <c r="F1140">
         <v>0</v>
       </c>
-      <c r="G1140" s="1">
-        <v>1</v>
+      <c r="G1140">
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.4">
@@ -26644,14 +26644,14 @@
       <c r="C1142" s="2">
         <v>7</v>
       </c>
-      <c r="D1142">
-        <v>0</v>
+      <c r="D1142" s="1">
+        <v>1</v>
       </c>
       <c r="E1142">
         <v>0</v>
       </c>
-      <c r="F1142" s="1">
-        <v>1</v>
+      <c r="F1142">
+        <v>0</v>
       </c>
       <c r="G1142">
         <v>0</v>
@@ -26693,8 +26693,8 @@
       <c r="D1144">
         <v>0</v>
       </c>
-      <c r="E1144">
-        <v>0</v>
+      <c r="E1144" s="1">
+        <v>1</v>
       </c>
       <c r="F1144">
         <v>0</v>
@@ -26742,8 +26742,8 @@
       <c r="E1146">
         <v>0</v>
       </c>
-      <c r="F1146">
-        <v>0</v>
+      <c r="F1146" s="1">
+        <v>1</v>
       </c>
       <c r="G1146">
         <v>0</v>
@@ -26791,8 +26791,8 @@
       <c r="F1148">
         <v>0</v>
       </c>
-      <c r="G1148">
-        <v>0</v>
+      <c r="G1148" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.4">
@@ -26834,8 +26834,8 @@
       <c r="E1150">
         <v>0</v>
       </c>
-      <c r="F1150">
-        <v>0</v>
+      <c r="F1150" s="1">
+        <v>1</v>
       </c>
       <c r="G1150">
         <v>0</v>
@@ -26877,8 +26877,8 @@
       <c r="D1152">
         <v>0</v>
       </c>
-      <c r="E1152">
-        <v>0</v>
+      <c r="E1152" s="1">
+        <v>1</v>
       </c>
       <c r="F1152">
         <v>0</v>
@@ -26923,14 +26923,14 @@
       <c r="D1154">
         <v>0</v>
       </c>
-      <c r="E1154" s="1">
-        <v>1</v>
+      <c r="E1154">
+        <v>0</v>
       </c>
       <c r="F1154">
         <v>0</v>
       </c>
-      <c r="G1154">
-        <v>0</v>
+      <c r="G1154" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.4">
@@ -26966,14 +26966,14 @@
       <c r="C1156" s="2">
         <v>5</v>
       </c>
-      <c r="D1156" s="1">
-        <v>1</v>
+      <c r="D1156">
+        <v>0</v>
       </c>
       <c r="E1156">
         <v>0</v>
       </c>
-      <c r="F1156">
-        <v>0</v>
+      <c r="F1156" s="1">
+        <v>1</v>
       </c>
       <c r="G1156">
         <v>0</v>
@@ -27064,8 +27064,8 @@
       <c r="E1160">
         <v>0</v>
       </c>
-      <c r="F1160">
-        <v>0</v>
+      <c r="F1160" s="1">
+        <v>1</v>
       </c>
       <c r="G1160">
         <v>0</v>
@@ -27113,8 +27113,8 @@
       <c r="F1162">
         <v>0</v>
       </c>
-      <c r="G1162">
-        <v>0</v>
+      <c r="G1162" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.4">
@@ -27150,8 +27150,8 @@
       <c r="C1164" s="2">
         <v>5</v>
       </c>
-      <c r="D1164">
-        <v>0</v>
+      <c r="D1164" s="1">
+        <v>1</v>
       </c>
       <c r="E1164">
         <v>0</v>
@@ -27202,8 +27202,8 @@
       <c r="E1166">
         <v>0</v>
       </c>
-      <c r="F1166">
-        <v>0</v>
+      <c r="F1166" s="1">
+        <v>1</v>
       </c>
       <c r="G1166">
         <v>0</v>
@@ -27248,8 +27248,8 @@
       <c r="E1168">
         <v>0</v>
       </c>
-      <c r="F1168">
-        <v>0</v>
+      <c r="F1168" s="1">
+        <v>1</v>
       </c>
       <c r="G1168">
         <v>0</v>
@@ -27288,8 +27288,8 @@
       <c r="C1170" s="2">
         <v>3</v>
       </c>
-      <c r="D1170">
-        <v>0</v>
+      <c r="D1170" s="1">
+        <v>1</v>
       </c>
       <c r="E1170">
         <v>0</v>
@@ -27429,8 +27429,8 @@
       <c r="D1176">
         <v>0</v>
       </c>
-      <c r="E1176">
-        <v>0</v>
+      <c r="E1176" s="1">
+        <v>1</v>
       </c>
       <c r="F1176">
         <v>0</v>
@@ -27472,8 +27472,8 @@
       <c r="C1178" s="2">
         <v>3</v>
       </c>
-      <c r="D1178">
-        <v>0</v>
+      <c r="D1178" s="1">
+        <v>1</v>
       </c>
       <c r="E1178">
         <v>0</v>
@@ -27524,8 +27524,8 @@
       <c r="E1180">
         <v>0</v>
       </c>
-      <c r="F1180">
-        <v>0</v>
+      <c r="F1180" s="1">
+        <v>1</v>
       </c>
       <c r="G1180">
         <v>0</v>
@@ -27567,8 +27567,8 @@
       <c r="D1182">
         <v>0</v>
       </c>
-      <c r="E1182">
-        <v>0</v>
+      <c r="E1182" s="1">
+        <v>1</v>
       </c>
       <c r="F1182">
         <v>0</v>
@@ -27619,8 +27619,8 @@
       <c r="F1184" s="1">
         <v>1</v>
       </c>
-      <c r="G1184">
-        <v>0</v>
+      <c r="G1184" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:7" x14ac:dyDescent="0.4">
